--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_6_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_6_sawtooth_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.39000000000053</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003987303574725987</v>
+        <v>0.000124500126920446</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01108848184224693</v>
+        <v>0.0006914793618740173</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.212696175521254</v>
+        <v>5.295015933888039</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.1922472124196926, 7.233145138622815]</t>
+          <t>[1.962331476942179, 8.6277003908339]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.006406394439842034</v>
+        <v>0.001931992454206499</v>
       </c>
       <c r="N2" t="n">
-        <v>0.006406394439842034</v>
+        <v>0.001931992454206499</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.333368653775848</v>
+        <v>-1.081789662497386</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.251631971942234, -0.4151053356094616]</t>
+          <t>[-1.7107371406935412, -0.4528421843012316]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.004554491401132399</v>
+        <v>0.0008012129114456368</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004554491401132399</v>
+        <v>0.0008012129114456368</v>
       </c>
       <c r="S2" t="n">
-        <v>13.85258528981177</v>
+        <v>13.97383856003016</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.110758142016223, 15.594412437607314]</t>
+          <t>[12.25334885463578, 15.69432826542454]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.388068068068179</v>
+        <v>4.333573573573659</v>
       </c>
       <c r="X2" t="n">
-        <v>1.677417417417451</v>
+        <v>1.81405405405409</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.098718718718908</v>
+        <v>6.853093093093229</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.5800000000004</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.263412371166339e-05</v>
+        <v>4.682166564984325e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002531876068090355</v>
+        <v>0.0006914793618740173</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.136898749470225</v>
+        <v>4.751125961729254</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.5455201403394376, 7.728277358601012]</t>
+          <t>[2.1114245359466786, 7.390827387511829]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0001133086177860232</v>
+        <v>0.0004477300416543262</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002266172355720464</v>
+        <v>0.0008954600833086523</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.786210838077079</v>
+        <v>2.861711025792505</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.390000417145388, -1.1824212590087706]</t>
+          <t>[2.220184598032427, 3.5032374535525825]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.188204246105329e-08</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.376408492210658e-08</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>12.81820529804276</v>
+        <v>13.58609779486475</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.344191435704175, 14.29221916038135]</t>
+          <t>[12.123974737949817, 15.048220851779673]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6.987707707707823</v>
+        <v>13.04184184184201</v>
       </c>
       <c r="X3" t="n">
-        <v>4.625665665665742</v>
+        <v>10.59649649649663</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.349749749749904</v>
+        <v>15.48718718718738</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_6_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_6_sawtooth_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.1700000000005</v>
+        <v>24.87000000000045</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000124500126920446</v>
+        <v>0.0001880755214093144</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006914793618740173</v>
+        <v>0.0007957636190952327</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.295015933888039</v>
+        <v>5.594591435977001</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.962331476942179, 8.6277003908339]</t>
+          <t>[2.5143404267469496, 8.674842445207053]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.001931992454206499</v>
+        <v>0.0004052669977812062</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001931992454206499</v>
+        <v>0.0004052669977812062</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.081789662497386</v>
+        <v>-1.522052897234694</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.7107371406935412, -0.4528421843012316]</t>
+          <t>[-2.226474072814387, -0.8176317216550011]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0008012129114456368</v>
+        <v>2.774536653427084e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0008012129114456368</v>
+        <v>2.774536653427084e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>13.97383856003016</v>
+        <v>14.278552238938</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.25334885463578, 15.69432826542454]</t>
+          <t>[12.42315878876865, 16.133945689107353]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.333573573573659</v>
+        <v>6.02456456456467</v>
       </c>
       <c r="X2" t="n">
-        <v>1.81405405405409</v>
+        <v>3.236336336336393</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.853093093093229</v>
+        <v>8.812792792792948</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.9500000000003</v>
+        <v>24.45000000000038</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4.682166564984325e-05</v>
+        <v>9.511453883281895e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006914793618740173</v>
+        <v>0.0002027579929818267</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.751125961729254</v>
+        <v>5.436747493663888</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.1114245359466786, 7.390827387511829]</t>
+          <t>[2.5104954977266303, 8.362999489601146]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0004477300416543262</v>
+        <v>0.000292621320000519</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0008954600833086523</v>
+        <v>0.0004052669977812062</v>
       </c>
       <c r="O3" t="n">
-        <v>2.861711025792505</v>
+        <v>-2.163579324994773</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.220184598032427, 3.5032374535525825]</t>
+          <t>[-2.717053105807389, -1.6101055441821566]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.0635936575909e-13</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.1271873151818e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>13.58609779486475</v>
+        <v>13.69309828025058</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.123974737949817, 15.048220851779673]</t>
+          <t>[12.152001133745436, 15.234195426755733]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.04184184184201</v>
+        <v>8.419219219219354</v>
       </c>
       <c r="X3" t="n">
-        <v>10.59649649649663</v>
+        <v>6.265465465465566</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.48718718718738</v>
+        <v>10.57297297297314</v>
       </c>
     </row>
   </sheetData>
